--- a/DATOS.xlsx
+++ b/DATOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bienvenido" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,18 +20,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -45,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -78,12 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -431,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -456,37 +433,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Set</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Duración</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Parcial 8</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Parcial 16</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Parcial 21</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
@@ -1502,142 +1479,142 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Equipo</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Numero</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Libero</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Apellido</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Voto</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tot</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>V-P</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tot S</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Err S</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Pts S</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tot R</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Err R</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Pos% R</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>(Prf%) R</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Tot A</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Err A</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Blo A</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Pts A</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Pts% A</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Pts BK</t>
         </is>
@@ -30480,7 +30457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30489,102 +30466,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Equipo</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Set</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Ser</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ata</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BK</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tot S</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Err S</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Pts S</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tot R</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Err R</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Pos% R</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>(Prf%) R</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Tot A</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Err A</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Blo A</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Pts A</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Pts% A</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Pts BK</t>
         </is>
@@ -35637,19 +35614,25 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>6</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>9</v>
-      </c>
-      <c r="H59" t="n">
-        <v>25</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -35661,8 +35644,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K59" t="n">
-        <v>11</v>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -35679,8 +35664,10 @@
           <t>(36%)</t>
         </is>
       </c>
-      <c r="O59" t="n">
-        <v>19</v>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -35692,8 +35679,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="R59" t="n">
-        <v>6</v>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -35727,19 +35716,25 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>13</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>7</v>
-      </c>
-      <c r="H60" t="n">
-        <v>24</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -35751,8 +35746,10 @@
           <t>2</t>
         </is>
       </c>
-      <c r="K60" t="n">
-        <v>15</v>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -35769,8 +35766,10 @@
           <t>(53%)</t>
         </is>
       </c>
-      <c r="O60" t="n">
-        <v>25</v>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -35782,8 +35781,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>13</v>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -35817,19 +35818,25 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>11</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>6</v>
-      </c>
-      <c r="H61" t="n">
-        <v>25</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -35841,8 +35848,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="K61" t="n">
-        <v>11</v>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -35859,8 +35868,10 @@
           <t>(18%)</t>
         </is>
       </c>
-      <c r="O61" t="n">
-        <v>18</v>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -35872,8 +35883,10 @@
           <t>.</t>
         </is>
       </c>
-      <c r="R61" t="n">
-        <v>11</v>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -35881,1572 +35894,6 @@
         </is>
       </c>
       <c r="T61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>24/11/2021_1</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>AA Espinho</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Set 1</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>11</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>8</v>
-      </c>
-      <c r="H62" t="n">
-        <v>18</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>22</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>68%</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>(27%)</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
-        <v>26</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>11</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>42%</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>24/11/2021_1</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>AA Espinho</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Set 2</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>15</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>8</v>
-      </c>
-      <c r="H63" t="n">
-        <v>25</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>19</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>37%</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>(21%)</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>30</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>15</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>24/11/2021_1</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>AA Espinho</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Set 3</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>13</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>5</v>
-      </c>
-      <c r="H64" t="n">
-        <v>21</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>21</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>(24%)</t>
-        </is>
-      </c>
-      <c r="O64" t="n">
-        <v>22</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>13</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>24/11/2021_1</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>AA Espinho</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Set 4</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>11</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>10</v>
-      </c>
-      <c r="H65" t="n">
-        <v>19</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>21</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>(48%)</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>32</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>11</v>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>34%</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>24/11/2021_1</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>SL Benfica</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Set 1</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>11</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>4</v>
-      </c>
-      <c r="H66" t="n">
-        <v>25</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>15</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>(27%)</t>
-        </is>
-      </c>
-      <c r="O66" t="n">
-        <v>21</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>11</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>24/11/2021_1</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>SL Benfica</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Set 2</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>12</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>5</v>
-      </c>
-      <c r="H67" t="n">
-        <v>22</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>19</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>(53%)</t>
-        </is>
-      </c>
-      <c r="O67" t="n">
-        <v>28</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>12</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>24/11/2021_1</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>SL Benfica</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Set 3</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>16</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>4</v>
-      </c>
-      <c r="H68" t="n">
-        <v>25</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>17</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>41%</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>(24%)</t>
-        </is>
-      </c>
-      <c r="O68" t="n">
-        <v>23</v>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>16</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>24/11/2021_1</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>SL Benfica</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Set 4</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>10</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>5</v>
-      </c>
-      <c r="H69" t="n">
-        <v>24</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>14</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>(29%)</t>
-        </is>
-      </c>
-      <c r="O69" t="n">
-        <v>23</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>10</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>10/05/2021_4</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>AJ Fonte Bastardo</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Set 1</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>14</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>6</v>
-      </c>
-      <c r="H70" t="n">
-        <v>25</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>18</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>(33%)</t>
-        </is>
-      </c>
-      <c r="O70" t="n">
-        <v>26</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>14</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>54%</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>10/05/2021_4</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>AJ Fonte Bastardo</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Set 2</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>17</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>6</v>
-      </c>
-      <c r="H71" t="n">
-        <v>25</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>15</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>(20%)</t>
-        </is>
-      </c>
-      <c r="O71" t="n">
-        <v>21</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>17</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>81%</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>10/05/2021_4</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>AJ Fonte Bastardo</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Set 3</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>12</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>8</v>
-      </c>
-      <c r="H72" t="n">
-        <v>24</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
-        <v>13</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>(46%)</t>
-        </is>
-      </c>
-      <c r="O72" t="n">
-        <v>24</v>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>12</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>10/05/2021_4</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Clube Kairós</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Set 1</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>17</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>10</v>
-      </c>
-      <c r="H73" t="n">
-        <v>25</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>23</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>(26%)</t>
-        </is>
-      </c>
-      <c r="O73" t="n">
-        <v>36</v>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>17</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>10/05/2021_4</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Clube Kairós</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Set 2</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>8</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>3</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>21</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>48%</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>(19%)</t>
-        </is>
-      </c>
-      <c r="O74" t="n">
-        <v>14</v>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>8</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>10/05/2021_4</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Clube Kairós</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Set 3</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>7</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>8</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>20</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>(15%)</t>
-        </is>
-      </c>
-      <c r="O75" t="n">
-        <v>21</v>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>7</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>10/05/2021_2</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Sporting CP</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Set 1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>64%</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>(36%)</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>10/05/2021_2</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Sporting CP</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Set 2</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>73%</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>(53%)</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>10/05/2021_2</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Sporting CP</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Set 3</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>(18%)</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>61%</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -37472,32 +35919,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Equipo</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Recepcion</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Puntos SO</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Servicio</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Puntos BP</t>
         </is>
